--- a/Test case details.xlsx
+++ b/Test case details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manojkt/Desktop/Web development/Group H assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F7E5E-7A5C-FC42-9AB1-01125735BE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7C640C-9BE1-604F-9488-333B1DF629EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{97CC6A5C-AD5E-6348-A1A5-7E6C246B744B}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Test case No</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Test Objective</t>
   </si>
   <si>
@@ -56,24 +53,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Demanding minimum 5 or more static web pages</t>
-  </si>
-  <si>
     <t>To check if there is 5 or more static web pages</t>
   </si>
   <si>
     <t>5 or more web pages</t>
   </si>
   <si>
-    <t>Not resolved</t>
-  </si>
-  <si>
-    <t>Only 3 static web pages</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -86,20 +71,147 @@
     <t>There is a menu bar</t>
   </si>
   <si>
-    <t>Resolved</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>The menu bar is present in the web application</t>
+    <t>13 static web pages</t>
+  </si>
+  <si>
+    <t>To check Dropdown menu1 functionality</t>
+  </si>
+  <si>
+    <t>Dropdown menu should open successfullly</t>
+  </si>
+  <si>
+    <t>Dropdown menu is opening successfully</t>
+  </si>
+  <si>
+    <t>To check Dropdown menu2 functionality</t>
+  </si>
+  <si>
+    <t>To check does Nav side bar has slider?</t>
+  </si>
+  <si>
+    <t>There must be a slider</t>
+  </si>
+  <si>
+    <t>The slider bar is present</t>
+  </si>
+  <si>
+    <t>To check if the Nav Buttons are clickable</t>
+  </si>
+  <si>
+    <t>The nav buttons must be clickable</t>
+  </si>
+  <si>
+    <t>The nav buttons are clickable</t>
+  </si>
+  <si>
+    <t>To check if there is a close button for side navbar and if its working</t>
+  </si>
+  <si>
+    <t>There must be a close button and sholud work</t>
+  </si>
+  <si>
+    <t>There is a close button  and its working</t>
+  </si>
+  <si>
+    <t>To check if we can land for dedicated page for Account button which is present in Side navbar</t>
+  </si>
+  <si>
+    <t>It should land to new page</t>
+  </si>
+  <si>
+    <t>Its landing to new page</t>
+  </si>
+  <si>
+    <t>To check the Login button is working</t>
+  </si>
+  <si>
+    <t>The login button must work after licking</t>
+  </si>
+  <si>
+    <t>The login button is working after clicking</t>
+  </si>
+  <si>
+    <t>To check the login funcationality have multiple roles</t>
+  </si>
+  <si>
+    <t>There must be multiple roles</t>
+  </si>
+  <si>
+    <t>No, there is no multiple roles</t>
+  </si>
+  <si>
+    <t>Every button sholud lead to different page after clicking</t>
+  </si>
+  <si>
+    <t>To check dropdown menu accessability</t>
+  </si>
+  <si>
+    <t>Yes, after cliking buttons from dropdown menu , its accessable</t>
+  </si>
+  <si>
+    <t>To check the CSS styling for every web page</t>
+  </si>
+  <si>
+    <t>Every web page should have its styling</t>
+  </si>
+  <si>
+    <t>The contact isn't styled</t>
+  </si>
+  <si>
+    <t>To check if the notification slider is working</t>
+  </si>
+  <si>
+    <t>After turning on the slider , the notification container should be visible</t>
+  </si>
+  <si>
+    <t>The notification container is visible after turning it ON</t>
+  </si>
+  <si>
+    <t>To check if the Theme slider is working</t>
+  </si>
+  <si>
+    <t>After turning on the slider , the light theme should to turned into dark</t>
+  </si>
+  <si>
+    <t>The dark theme is updating after turning it ON</t>
+  </si>
+  <si>
+    <t>To check If there is a Back button in every page</t>
+  </si>
+  <si>
+    <t>The back button should be there for every page</t>
+  </si>
+  <si>
+    <t>There is no back button in each page</t>
+  </si>
+  <si>
+    <t>To check compatibility of the application with every browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application should work in every browser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application is working in every browser </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,13 +295,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,22 +329,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A8C5D7-C10E-B147-8ECB-B1A40043FE24}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,407 +693,543 @@
     <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -958,8 +1239,8 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -969,8 +1250,8 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -980,8 +1261,8 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -991,8 +1272,8 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1002,8 +1283,8 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1013,8 +1294,8 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1024,8 +1305,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1035,8 +1316,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1046,8 +1327,8 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1057,8 +1338,8 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1068,8 +1349,8 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1079,8 +1360,8 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1090,8 +1371,8 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1101,8 +1382,8 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1112,8 +1393,8 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1123,8 +1404,8 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1134,8 +1415,8 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1145,8 +1426,8 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -1156,8 +1437,8 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -1167,8 +1448,8 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -1178,8 +1459,8 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -1189,8 +1470,8 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -1200,8 +1481,8 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -1211,8 +1492,8 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -1222,8 +1503,8 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -1233,8 +1514,8 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -1244,8 +1525,8 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -1255,15 +1536,13 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="E60" s="10"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Test case details.xlsx
+++ b/Test case details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manojkt/Desktop/Web development/Group H assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7C640C-9BE1-604F-9488-333B1DF629EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B739A9-8150-E94F-9E4B-09EFFBA44F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{97CC6A5C-AD5E-6348-A1A5-7E6C246B744B}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14840" xr2:uid="{97CC6A5C-AD5E-6348-A1A5-7E6C246B744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>There must be multiple roles</t>
   </si>
   <si>
-    <t>No, there is no multiple roles</t>
-  </si>
-  <si>
     <t>Every button sholud lead to different page after clicking</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">The application is working in every browser </t>
+  </si>
+  <si>
+    <t>Yes, there is different landing page for multiple roles</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -343,12 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -425,7 +419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -531,7 +525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A8C5D7-C10E-B147-8ECB-B1A40043FE24}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,8 +687,8 @@
     <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -715,7 +709,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -734,7 +728,7 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -756,7 +750,7 @@
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -778,7 +772,7 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -800,7 +794,7 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -822,7 +816,7 @@
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -844,7 +838,7 @@
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -866,7 +860,7 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -888,7 +882,7 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -910,7 +904,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -927,12 +921,12 @@
         <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -943,18 +937,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -964,19 +958,19 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -987,18 +981,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1009,18 +1003,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1031,18 +1025,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1053,18 +1047,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1074,8 +1068,8 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1085,8 +1079,8 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1096,8 +1090,8 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1107,8 +1101,8 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1118,8 +1112,8 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1129,8 +1123,8 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1140,8 +1134,8 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1151,8 +1145,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1162,8 +1156,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1173,8 +1167,8 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1184,8 +1178,8 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1195,8 +1189,8 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1206,8 +1200,8 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1217,8 +1211,8 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1228,8 +1222,8 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1239,8 +1233,8 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1250,8 +1244,8 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1261,8 +1255,8 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1272,8 +1266,8 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1283,8 +1277,8 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1294,8 +1288,8 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1305,8 +1299,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1316,8 +1310,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1327,8 +1321,8 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1338,8 +1332,8 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1349,8 +1343,8 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1360,8 +1354,8 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1371,8 +1365,8 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1382,8 +1376,8 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1393,8 +1387,8 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1404,8 +1398,8 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1415,8 +1409,8 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1426,8 +1420,8 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -1437,8 +1431,8 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -1448,8 +1442,8 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -1459,8 +1453,8 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -1470,8 +1464,8 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -1481,8 +1475,8 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -1492,8 +1486,8 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -1503,8 +1497,8 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -1514,8 +1508,8 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -1525,8 +1519,8 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -1536,7 +1530,7 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="10"/>
+      <c r="E60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
